--- a/INTLINE/data/532/HKSE/Hang Seng Index - Weekly.xlsx
+++ b/INTLINE/data/532/HKSE/Hang Seng Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CTY4"/>
+  <dimension ref="A1:CUA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13219,15 +13219,25 @@
       </c>
       <c r="CTW1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-23</t>
+        </is>
+      </c>
+      <c r="CTX1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-30</t>
+        </is>
+      </c>
+      <c r="CTY1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="CTX1" s="1" t="inlineStr">
+      <c r="CTZ1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="CTY1" s="1" t="inlineStr">
+      <c r="CUA1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -20944,19 +20954,25 @@
         <v>21518.08</v>
       </c>
       <c r="CTV2" t="n">
-        <v>20503</v>
-      </c>
-      <c r="CTW2" t="inlineStr">
+        <v>20638.52</v>
+      </c>
+      <c r="CTW2" t="n">
+        <v>21089.39</v>
+      </c>
+      <c r="CTX2" t="n">
+        <v>20879</v>
+      </c>
+      <c r="CTY2" t="inlineStr">
         <is>
           <t>HSI</t>
         </is>
       </c>
-      <c r="CTX2" t="inlineStr">
+      <c r="CTZ2" t="inlineStr">
         <is>
           <t>Hang Seng Index, Close Price</t>
         </is>
       </c>
-      <c r="CTY2" t="inlineStr">
+      <c r="CUA2" t="inlineStr">
         <is>
           <t>Index: 1964.07.31=100</t>
         </is>
@@ -26591,19 +26607,23 @@
         <v>4115.29</v>
       </c>
       <c r="CTV3" t="n">
-        <v>3921.55</v>
-      </c>
-      <c r="CTW3" t="inlineStr">
+        <v>3947.19</v>
+      </c>
+      <c r="CTW3" t="n">
+        <v>3801.18</v>
+      </c>
+      <c r="CTX3" t="inlineStr"/>
+      <c r="CTY3" t="inlineStr">
         <is>
           <t>HSCCI</t>
         </is>
       </c>
-      <c r="CTX3" t="inlineStr">
+      <c r="CTZ3" t="inlineStr">
         <is>
           <t>Hang Seng China Affiliated Corporation Index, Close Price</t>
         </is>
       </c>
-      <c r="CTY3" t="inlineStr">
+      <c r="CUA3" t="inlineStr">
         <is>
           <t>Index: 1996.01.02=100</t>
         </is>
@@ -32184,19 +32204,25 @@
         <v>7385.58</v>
       </c>
       <c r="CTV4" t="n">
-        <v>6914.82</v>
-      </c>
-      <c r="CTW4" t="inlineStr">
+        <v>6972.38</v>
+      </c>
+      <c r="CTW4" t="n">
+        <v>7298.69</v>
+      </c>
+      <c r="CTX4" t="n">
+        <v>7183.36</v>
+      </c>
+      <c r="CTY4" t="inlineStr">
         <is>
           <t>HSCEI</t>
         </is>
       </c>
-      <c r="CTX4" t="inlineStr">
+      <c r="CTZ4" t="inlineStr">
         <is>
           <t>Hang Seng China Enterprises Index, Close Price</t>
         </is>
       </c>
-      <c r="CTY4" t="inlineStr">
+      <c r="CUA4" t="inlineStr">
         <is>
           <t>Index: 2001.10.17=100</t>
         </is>

--- a/INTLINE/data/532/HKSE/Hang Seng Index - Weekly.xlsx
+++ b/INTLINE/data/532/HKSE/Hang Seng Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CUH4"/>
+  <dimension ref="A1:CUI4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13264,15 +13264,20 @@
       </c>
       <c r="CUF1" s="1" t="inlineStr">
         <is>
+          <t>2022-06-25</t>
+        </is>
+      </c>
+      <c r="CUG1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="CUG1" s="1" t="inlineStr">
+      <c r="CUH1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="CUH1" s="1" t="inlineStr">
+      <c r="CUI1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -21016,19 +21021,22 @@
         <v>21075</v>
       </c>
       <c r="CUE2" t="n">
-        <v>21292</v>
-      </c>
-      <c r="CUF2" t="inlineStr">
+        <v>21719.06</v>
+      </c>
+      <c r="CUF2" t="n">
+        <v>22240.5</v>
+      </c>
+      <c r="CUG2" t="inlineStr">
         <is>
           <t>HSI</t>
         </is>
       </c>
-      <c r="CUG2" t="inlineStr">
+      <c r="CUH2" t="inlineStr">
         <is>
           <t>Hang Seng Index, Close Price</t>
         </is>
       </c>
-      <c r="CUH2" t="inlineStr">
+      <c r="CUI2" t="inlineStr">
         <is>
           <t>Index: 1964.07.31=100</t>
         </is>
@@ -26690,19 +26698,20 @@
         <v>3684.31</v>
       </c>
       <c r="CUE3" t="n">
-        <v>3747.13</v>
-      </c>
-      <c r="CUF3" t="inlineStr">
+        <v>3820.6</v>
+      </c>
+      <c r="CUF3" t="inlineStr"/>
+      <c r="CUG3" t="inlineStr">
         <is>
           <t>HSCCI</t>
         </is>
       </c>
-      <c r="CUG3" t="inlineStr">
+      <c r="CUH3" t="inlineStr">
         <is>
           <t>Hang Seng China Affiliated Corporation Index, Close Price</t>
         </is>
       </c>
-      <c r="CUH3" t="inlineStr">
+      <c r="CUI3" t="inlineStr">
         <is>
           <t>Index: 1996.01.02=100</t>
         </is>
@@ -32310,19 +32319,22 @@
         <v>7367.68</v>
       </c>
       <c r="CUE4" t="n">
-        <v>7431.92</v>
-      </c>
-      <c r="CUF4" t="inlineStr">
+        <v>7629.06</v>
+      </c>
+      <c r="CUF4" t="n">
+        <v>7797.45</v>
+      </c>
+      <c r="CUG4" t="inlineStr">
         <is>
           <t>HSCEI</t>
         </is>
       </c>
-      <c r="CUG4" t="inlineStr">
+      <c r="CUH4" t="inlineStr">
         <is>
           <t>Hang Seng China Enterprises Index, Close Price</t>
         </is>
       </c>
-      <c r="CUH4" t="inlineStr">
+      <c r="CUI4" t="inlineStr">
         <is>
           <t>Index: 2001.10.17=100</t>
         </is>
